--- a/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>BBLN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,23 +711,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E8" s="3">
         <v>128800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>22500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,23 +743,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E9" s="3">
         <v>92100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>67300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,23 +775,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E10" s="3">
         <v>36700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,23 +823,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E12" s="3">
         <v>17200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20900</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,22 +885,25 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -897,8 +917,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,23 +962,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E17" s="3">
         <v>203400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>254800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>105400</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,23 +992,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-74600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-175500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-82900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,23 +1040,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,23 +1070,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-64900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-168900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-81400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,23 +1134,26 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-78200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-183400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-87900</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,23 +1166,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,23 +1230,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-75700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-188000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-90800</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,23 +1262,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-74900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-186800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-90000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,23 +1422,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,23 +1454,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-74900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-186800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-90000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,23 +1518,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-74900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-186800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-90000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,28 +1550,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,17 +1617,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E41" s="3">
         <v>42100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,17 +1679,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E43" s="3">
         <v>28200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,17 +1743,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,17 +1775,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E46" s="3">
         <v>83300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,17 +1807,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E47" s="3">
         <v>12600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,17 +1839,20 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E48" s="3">
         <v>13000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,17 +1871,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E49" s="3">
         <v>133600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,17 +2031,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>241200</v>
+      </c>
+      <c r="E54" s="3">
         <v>242600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,17 +2093,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E57" s="3">
         <v>26200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,17 +2123,20 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,17 +2155,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E59" s="3">
         <v>56000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,17 +2187,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E60" s="3">
         <v>84700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,17 +2219,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E61" s="3">
         <v>10800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2108,17 +2251,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E62" s="3">
         <v>89100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,17 +2379,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E66" s="3">
         <v>182500</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,17 +2553,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-556800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-499100</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,17 +2681,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E76" s="3">
         <v>60100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2745,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,23 +2782,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-74900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-186800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-90000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,23 +2830,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E83" s="3">
         <v>13300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,23 +3020,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-143400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-87400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,23 +3068,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,23 +3162,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-72200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,23 +3336,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,23 +3368,26 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3151,23 +3400,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-113100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-124700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,26 +714,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E8" s="3">
         <v>74500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>128800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>79300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>22500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -746,26 +749,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E9" s="3">
         <v>68300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>92100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>67300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,26 +784,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E10" s="3">
         <v>6200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,26 +836,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E12" s="3">
         <v>19300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>35500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20900</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,25 +904,28 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -920,8 +939,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,26 +988,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>381100</v>
+      </c>
+      <c r="E17" s="3">
         <v>137000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>203400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>254800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>105400</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,26 +1021,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-261400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-62500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-74600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-175500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-82900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,26 +1073,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,26 +1106,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-218900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-57100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-64900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-168900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-81400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1141,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,26 +1176,29 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-231800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-66000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-78200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-183400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-87900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,26 +1211,29 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,8 +1246,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,26 +1281,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-66000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-75700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-188000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-90800</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,26 +1316,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-228300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-65200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-74900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-186800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-90000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,26 +1491,29 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E32" s="3">
         <v>3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1457,26 +1526,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-228300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-65200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-74900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-186800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-90000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,26 +1596,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-228300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-65200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-74900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-186800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-90000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,31 +1631,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,20 +1703,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>262300</v>
+      </c>
+      <c r="E41" s="3">
         <v>37100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42100</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1736,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,20 +1771,23 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E43" s="3">
         <v>31100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1806,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,20 +1841,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E45" s="3">
         <v>15600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,20 +1876,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>316700</v>
+      </c>
+      <c r="E46" s="3">
         <v>83800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>83300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,20 +1911,23 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>11600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>12600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,20 +1946,23 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E48" s="3">
         <v>13300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,20 +1981,23 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>205100</v>
+      </c>
+      <c r="E49" s="3">
         <v>132600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>133600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +2016,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2086,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2002,8 +2121,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,20 +2156,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>554600</v>
+      </c>
+      <c r="E54" s="3">
         <v>241200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>242600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,20 +2223,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E57" s="3">
         <v>22600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,20 +2256,23 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
         <v>51800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,20 +2291,23 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E59" s="3">
         <v>75500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,20 +2326,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>133700</v>
+      </c>
+      <c r="E60" s="3">
         <v>149800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>84700</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,20 +2361,23 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2254,20 +2396,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E62" s="3">
         <v>84000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>89100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,20 +2536,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>389400</v>
+      </c>
+      <c r="E66" s="3">
         <v>239000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>182500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,20 +2726,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-757600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-556800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-499100</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,20 +2866,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>165300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,31 +2936,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,26 +2976,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-228300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-65200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-74900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-186800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-90000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,26 +3028,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E83" s="3">
         <v>8800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +3061,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,26 +3236,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-143400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-87400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,26 +3288,27 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3101,8 +3321,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,26 +3391,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-72200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,26 +3581,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>321200</v>
+      </c>
+      <c r="E100" s="3">
         <v>45500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,26 +3616,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3403,26 +3651,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-113100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-124700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
   <si>
     <t>BBLN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,51 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,32 +719,38 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>266400</v>
+      </c>
+      <c r="F8" s="3">
         <v>119700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>74500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>128800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>79300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>22500</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -752,32 +760,38 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
         <v>129200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>68300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>92100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>67300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>18800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,32 +801,38 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>-9500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>36700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>12000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3700</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,8 +842,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,32 +863,34 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F12" s="3">
         <v>11000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>19300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>17200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>35500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>20900</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +900,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,31 +941,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>148700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>-3900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -942,8 +982,14 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1023,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,32 +1041,34 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>413600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>356500</v>
+      </c>
+      <c r="F17" s="3">
         <v>381100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>137000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>203400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>254800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>105400</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,32 +1078,38 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-148200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-90100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-261400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-62500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-74600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-175500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-82900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1119,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,32 +1140,34 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>29600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,32 +1177,38 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-144900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-218900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-57100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-64900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-168900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-81400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,8 +1218,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,32 +1259,38 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-156900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-231800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-66000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-78200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-183400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-87900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,32 +1300,38 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1249,8 +1341,14 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,32 +1382,38 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-157100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-232800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-66000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-75700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-188000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-90800</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,32 +1423,38 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-157100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-228300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-65200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-74900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-186800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-90000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1464,14 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1505,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1546,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1587,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,32 +1628,38 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-29600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,32 +1669,38 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-157100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-228300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-65200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-74900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-186800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-90000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1710,14 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,32 +1751,38 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-157100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-228300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-65200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-74900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-186800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-90000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,37 +1792,43 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1838,14 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1859,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,26 +1876,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>275000</v>
+      </c>
+      <c r="F41" s="3">
         <v>262300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>37100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>42100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,13 +1913,19 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1753,17 +1933,17 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1774,26 +1954,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F43" s="3">
         <v>24100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>31100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>28200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1995,14 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,26 +2036,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F45" s="3">
         <v>30300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>15600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,26 +2077,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>330400</v>
+      </c>
+      <c r="F46" s="3">
         <v>316700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>83800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>83300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,26 +2118,32 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>11600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>12600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,26 +2159,32 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F48" s="3">
         <v>32800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>13300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,26 +2200,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>148900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>206500</v>
+      </c>
+      <c r="F49" s="3">
         <v>205100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>132600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>133600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2241,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2282,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,8 +2323,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2124,8 +2364,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,26 +2405,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>432300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>582600</v>
+      </c>
+      <c r="F54" s="3">
         <v>554600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>241200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>242600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2446,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2467,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,26 +2484,28 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F57" s="3">
         <v>22700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>22600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>26200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,26 +2521,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F58" s="3">
         <v>4400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>51800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,26 +2562,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>119300</v>
+      </c>
+      <c r="F59" s="3">
         <v>106600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>75500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>56000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,26 +2603,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>133700</v>
+        <v>143000</v>
       </c>
       <c r="E60" s="3">
         <v>149800</v>
       </c>
       <c r="F60" s="3">
+        <v>133700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>149800</v>
+      </c>
+      <c r="H60" s="3">
         <v>84700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,26 +2644,32 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>286700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>282300</v>
+      </c>
+      <c r="F61" s="3">
         <v>177000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>10800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2399,26 +2685,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>70900</v>
+      </c>
+      <c r="F62" s="3">
         <v>78700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>84000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>89100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2726,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2767,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2808,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,26 +2849,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>492700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>503000</v>
+      </c>
+      <c r="F66" s="3">
         <v>389400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>239000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>182500</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2890,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2911,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2948,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2989,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +3030,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,26 +3071,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-985300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-839800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-757600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-556800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-499100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +3112,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +3153,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3194,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,26 +3235,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>79500</v>
+      </c>
+      <c r="F76" s="3">
         <v>165300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>60100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3276,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,37 +3317,43 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,32 +3363,38 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-157100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-228300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-65200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-74900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-186800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-90000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3014,8 +3404,14 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,32 +3425,34 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F83" s="3">
         <v>12900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>13300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>14500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3462,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3503,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3544,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3585,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3626,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,32 +3667,38 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-85500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-40900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-19500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-143400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-87400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3708,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,32 +3729,34 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3324,8 +3766,14 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3807,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,32 +3848,38 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-8800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-10700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-35300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-72200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-23600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3889,14 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3910,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3947,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3988,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +4029,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,32 +4070,38 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>93000</v>
+      </c>
+      <c r="F100" s="3">
         <v>321200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>45500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-13000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,32 +4111,38 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3654,32 +4152,38 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F102" s="3">
         <v>225400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-59400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-113100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-124700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +4191,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>BBLN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,35 +726,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>288900</v>
+      </c>
+      <c r="E8" s="3">
         <v>265400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>266400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>119700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>128800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>79300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,8 +770,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,24 +784,24 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>129200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>68300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>92100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>67300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,24 +828,24 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>-9500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,35 +878,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E12" s="3">
         <v>18700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>35500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20900</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,34 +964,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>53200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>148700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>-3900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1069,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>366200</v>
+      </c>
+      <c r="E17" s="3">
         <v>413600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>356500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>381100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>137000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>203400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>254800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>105400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,35 +1111,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-148200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-90100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-261400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-62500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-74600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-175500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-82900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,35 +1175,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,35 +1217,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-144900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-81900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-218900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-57100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-64900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-168900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-81400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,35 +1305,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-156900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-91300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-231800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-66000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-78200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-183400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-87900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,35 +1349,38 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1437,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-157100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-91400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-232800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-66000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-75700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-188000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-90800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1481,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-157100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-91400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-228300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-65200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-74900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-186800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-90000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,35 +1701,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E32" s="3">
         <v>8700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1745,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-157100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-91400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-228300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-65200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-74900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-186800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-90000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1833,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-157100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-91400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-228300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-65200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-74900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-186800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-90000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1877,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E41" s="3">
         <v>146700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>275000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>262300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,34 +2006,37 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
         <v>40000</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1960,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E43" s="3">
         <v>28300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,29 +2138,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E45" s="3">
         <v>23800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,29 +2182,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E46" s="3">
         <v>238800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>330400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>316700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>83800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>83300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2135,18 +2240,18 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>11600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,29 +2270,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E48" s="3">
         <v>44700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,29 +2314,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E49" s="3">
         <v>148900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>206500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>205100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>132600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>133600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>346500</v>
+      </c>
+      <c r="E54" s="3">
         <v>432300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>582600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>554600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>241200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>242600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E57" s="3">
         <v>30800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>22700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>22600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,29 +2658,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
         <v>5200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>51800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,29 +2702,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E59" s="3">
         <v>106900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>119300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>106600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>75500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>56000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,29 +2746,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E60" s="3">
         <v>143000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>149800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>133700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>149800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>84700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,29 +2790,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>286300</v>
+      </c>
+      <c r="E61" s="3">
         <v>286700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>282300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>177000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2691,29 +2834,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E62" s="3">
         <v>63000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>78700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>486100</v>
+      </c>
+      <c r="E66" s="3">
         <v>492700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>503000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>389400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>239000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>182500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1065200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-985300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-839800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-757600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-556800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-499100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-139700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-60400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>79500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>165300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3512,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3561,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-157100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-91400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-228300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-65200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-74900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-186800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-90000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,35 +3625,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>11900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3887,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-58000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-69000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-85500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-143400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-87400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,35 +3951,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,35 +4081,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-35300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-72200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4319,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>93000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>321200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>45500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,35 +4363,38 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4158,35 +4407,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-88000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>225400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-59400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-113100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-124700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBLN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>BBLN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,41 +730,47 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>311100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1109700</v>
+      </c>
+      <c r="F8" s="3">
         <v>288900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>265400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>266400</v>
       </c>
-      <c r="G8" s="3">
-        <v>119700</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>320800</v>
+      </c>
+      <c r="J8" s="3">
         <v>74500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>128800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>79300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>22500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,8 +780,14 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,27 +800,27 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
         <v>129200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>68300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>92100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>67300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>18800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,8 +830,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,27 +850,27 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>191600</v>
+      </c>
+      <c r="J10" s="3">
         <v>6200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>36700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>12000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +880,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,41 +904,43 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>79200</v>
+      </c>
+      <c r="F12" s="3">
         <v>16200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>18700</v>
       </c>
-      <c r="F12" s="3">
-        <v>10100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11000</v>
-      </c>
       <c r="H12" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>68500</v>
+      </c>
+      <c r="J12" s="3">
         <v>19300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>17200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>35500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>20900</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +950,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,40 +1000,46 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>53200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>148700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>144800</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1011,31 +1050,37 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+        <v>12100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>9200</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1055,8 +1100,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,8 +1121,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1079,32 +1132,32 @@
         <v>366200</v>
       </c>
       <c r="E17" s="3">
+        <v>1479400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>366200</v>
+      </c>
+      <c r="G17" s="3">
         <v>413600</v>
       </c>
-      <c r="F17" s="3">
-        <v>356500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>381100</v>
-      </c>
       <c r="H17" s="3">
+        <v>368100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>629600</v>
+      </c>
+      <c r="J17" s="3">
         <v>137000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>203400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>254800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>105400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,41 +1167,47 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-369700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-77300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-148200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-90100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-261400</v>
-      </c>
       <c r="H18" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-308800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-62500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-74600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-175500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-82900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1217,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,41 +1241,43 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>180900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-12300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-8700</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>29600</v>
-      </c>
       <c r="H20" s="3">
+        <v>78600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>237000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,41 +1287,47 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-176700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-82100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-144900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-81900</v>
-      </c>
       <c r="G21" s="3">
-        <v>-218900</v>
+        <v>-138600</v>
       </c>
       <c r="H21" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-57100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-64900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-168900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-81400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,31 +1337,37 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+        <v>32700</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>13000</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1308,41 +1387,47 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-221500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-89600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-156900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-91300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-231800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-66000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-78200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-183400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-87900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,41 +1437,47 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1000</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,8 +1487,14 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1537,47 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-221400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-89900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-157100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-91400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-232800</v>
-      </c>
       <c r="H26" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-66000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-75700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-188000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-90800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1587,47 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-221400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-89900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-157100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-91400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-228300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-65200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-74900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-186800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-90000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1637,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,41 +1837,47 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-180900</v>
+      </c>
+      <c r="F32" s="3">
         <v>12300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>8700</v>
       </c>
-      <c r="F32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-29600</v>
-      </c>
       <c r="H32" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="J32" s="3">
         <v>3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,41 +1887,47 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-221400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-89900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-157100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-91400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-228300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-65200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-74900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-186800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-90000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1937,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1987,47 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-221400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-89900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-157100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-91400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-228300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-65200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-74900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-186800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-90000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +2037,52 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2092,14 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,35 +2136,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F41" s="3">
         <v>110200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>146700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>275000</v>
       </c>
-      <c r="G41" s="3">
-        <v>262300</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>524600</v>
+      </c>
+      <c r="J41" s="3">
         <v>37100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>42100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,25 +2182,31 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
         <v>40000</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2035,14 +2214,14 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2053,35 +2232,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F43" s="3">
         <v>29900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>28300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>28000</v>
       </c>
-      <c r="G43" s="3">
-        <v>24100</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>48200</v>
+      </c>
+      <c r="J43" s="3">
         <v>31100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>28200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2282,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,35 +2332,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>143900</v>
+      </c>
+      <c r="F45" s="3">
         <v>20300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>23800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>27400</v>
       </c>
-      <c r="G45" s="3">
-        <v>30300</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>30400</v>
+      </c>
+      <c r="J45" s="3">
         <v>15600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,35 +2382,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>183100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>220100</v>
+      </c>
+      <c r="F46" s="3">
         <v>160400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>238800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>330400</v>
       </c>
-      <c r="G46" s="3">
-        <v>316700</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>312700</v>
+      </c>
+      <c r="J46" s="3">
         <v>83800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>83300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2432,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2243,21 +2452,21 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>11600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>12600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,35 +2482,41 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F48" s="3">
         <v>40700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>44700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>45700</v>
       </c>
-      <c r="G48" s="3">
-        <v>32800</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>70600</v>
+      </c>
+      <c r="J48" s="3">
         <v>13300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>13000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,35 +2532,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>145400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>148900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>206500</v>
       </c>
-      <c r="G49" s="3">
-        <v>205100</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
+        <v>118000</v>
+      </c>
+      <c r="J49" s="3">
         <v>132600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>133600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2582,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2682,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2493,8 +2732,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,35 +2782,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>246100</v>
+      </c>
+      <c r="F54" s="3">
         <v>346500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>432300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>582600</v>
       </c>
-      <c r="G54" s="3">
-        <v>554600</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>446600</v>
+      </c>
+      <c r="J54" s="3">
         <v>241200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>242600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,35 +2876,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F57" s="3">
         <v>26900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>30800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>25200</v>
       </c>
-      <c r="G57" s="3">
-        <v>22700</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J57" s="3">
         <v>22600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>26200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,35 +2922,41 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>4700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>5300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>51800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,35 +2972,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>165700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>152800</v>
+      </c>
+      <c r="F59" s="3">
         <v>113500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>106900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>119300</v>
       </c>
-      <c r="G59" s="3">
-        <v>106600</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>204300</v>
+      </c>
+      <c r="J59" s="3">
         <v>75500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>56000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,35 +3022,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>162400</v>
+      </c>
+      <c r="F60" s="3">
         <v>145100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>143000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>149800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>133700</v>
       </c>
       <c r="H60" s="3">
         <v>149800</v>
       </c>
       <c r="I60" s="3">
+        <v>163500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K60" s="3">
         <v>84700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,35 +3072,41 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>295400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>278000</v>
+      </c>
+      <c r="F61" s="3">
         <v>286300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>286700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>282300</v>
       </c>
-      <c r="G61" s="3">
-        <v>177000</v>
-      </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
+        <v>168600</v>
+      </c>
+      <c r="J61" s="3">
         <v>7900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>10800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2837,35 +3122,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F62" s="3">
         <v>54800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>63000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>70900</v>
       </c>
-      <c r="G62" s="3">
-        <v>78700</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>283100</v>
+      </c>
+      <c r="J62" s="3">
         <v>84000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>89100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3172,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,35 +3322,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>523100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>502000</v>
+      </c>
+      <c r="F66" s="3">
         <v>486100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>492700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>503000</v>
       </c>
-      <c r="G66" s="3">
-        <v>389400</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>607900</v>
+      </c>
+      <c r="J66" s="3">
         <v>239000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>182500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,35 +3592,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-900000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-836800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1065200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-985300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-839800</v>
       </c>
-      <c r="G72" s="3">
-        <v>-757600</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-556800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-499100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,35 +3792,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-315100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-255900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-139700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-60400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>79500</v>
       </c>
-      <c r="G76" s="3">
-        <v>165300</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>60100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3892,52 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3947,47 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-221400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-89900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-157100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-91400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-228300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-65200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-74900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-186800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-90000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3997,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,41 +4021,43 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>11900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9500</v>
       </c>
-      <c r="G83" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>35000</v>
+      </c>
+      <c r="J83" s="3">
         <v>8800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>13300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>14500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>6500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +4067,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,41 +4317,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-372400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-63500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-58000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-69000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-85500</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-145900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-40900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-19500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-143400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-87400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4367,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,41 +4391,43 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1600</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4400</v>
+        <v>-23700</v>
       </c>
       <c r="F91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2900</v>
-      </c>
       <c r="I91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4437,14 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,41 +4537,47 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-11700</v>
-      </c>
       <c r="G94" s="3">
-        <v>-8800</v>
+        <v>-21400</v>
       </c>
       <c r="H94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-10700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-35300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-72200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-23600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4587,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,41 +4807,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>173200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="E100" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>93000</v>
-      </c>
       <c r="G100" s="3">
-        <v>321200</v>
+        <v>-7800</v>
       </c>
       <c r="H100" s="3">
+        <v>93500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>384700</v>
+      </c>
+      <c r="J100" s="3">
         <v>45500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-13000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,41 +4857,47 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-10400</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4410,41 +4907,47 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-219100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-76700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-88000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>12400</v>
       </c>
-      <c r="G102" s="3">
-        <v>225400</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>160800</v>
+      </c>
+      <c r="J102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-59400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-113100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-124700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4955,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
